--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H2">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.37105489388635</v>
+        <v>2.618716333333334</v>
       </c>
       <c r="N2">
-        <v>2.37105489388635</v>
+        <v>7.856149000000001</v>
       </c>
       <c r="O2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="P2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
       <c r="Q2">
-        <v>15.35762431210862</v>
+        <v>41.3599865647469</v>
       </c>
       <c r="R2">
-        <v>15.35762431210862</v>
+        <v>372.2398790827221</v>
       </c>
       <c r="S2">
-        <v>0.009898371246595818</v>
+        <v>0.02112079235805335</v>
       </c>
       <c r="T2">
-        <v>0.009898371246595818</v>
+        <v>0.02112079235805334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H3">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.9331216370103</v>
+        <v>15.503283</v>
       </c>
       <c r="N3">
-        <v>14.9331216370103</v>
+        <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="P3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="Q3">
-        <v>96.72372938288341</v>
+        <v>244.8587380112581</v>
       </c>
       <c r="R3">
-        <v>96.72372938288341</v>
+        <v>2203.728642101322</v>
       </c>
       <c r="S3">
-        <v>0.06234085183553986</v>
+        <v>0.1250389807185957</v>
       </c>
       <c r="T3">
-        <v>0.06234085183553986</v>
+        <v>0.1250389807185957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H4">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I4">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J4">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.6054419963474</v>
+        <v>18.67887366666666</v>
       </c>
       <c r="N4">
-        <v>18.6054419963474</v>
+        <v>56.036621</v>
       </c>
       <c r="O4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="P4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="Q4">
-        <v>120.5098157269097</v>
+        <v>295.0139937129264</v>
       </c>
       <c r="R4">
-        <v>120.5098157269097</v>
+        <v>2655.125943416338</v>
       </c>
       <c r="S4">
-        <v>0.07767157671537181</v>
+        <v>0.1506511442932067</v>
       </c>
       <c r="T4">
-        <v>0.07767157671537181</v>
+        <v>0.1506511442932066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H5">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.37105489388635</v>
+        <v>2.618716333333334</v>
       </c>
       <c r="N5">
-        <v>2.37105489388635</v>
+        <v>7.856149000000001</v>
       </c>
       <c r="O5">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="P5">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
       <c r="Q5">
-        <v>57.89942757674382</v>
+        <v>65.12629329602822</v>
       </c>
       <c r="R5">
-        <v>57.89942757674382</v>
+        <v>586.1366396642541</v>
       </c>
       <c r="S5">
-        <v>0.03731762266564453</v>
+        <v>0.03325723802162727</v>
       </c>
       <c r="T5">
-        <v>0.03731762266564453</v>
+        <v>0.03325723802162727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H6">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J6">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.9331216370103</v>
+        <v>15.503283</v>
       </c>
       <c r="N6">
-        <v>14.9331216370103</v>
+        <v>46.509849</v>
       </c>
       <c r="O6">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="P6">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="Q6">
-        <v>364.6559162110345</v>
+        <v>385.559651061606</v>
       </c>
       <c r="R6">
-        <v>364.6559162110345</v>
+        <v>3470.036859554454</v>
       </c>
       <c r="S6">
-        <v>0.2350298172796473</v>
+        <v>0.1968889742980871</v>
       </c>
       <c r="T6">
-        <v>0.2350298172796473</v>
+        <v>0.1968889742980871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H7">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J7">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.6054419963474</v>
+        <v>18.67887366666666</v>
       </c>
       <c r="N7">
-        <v>18.6054419963474</v>
+        <v>56.036621</v>
       </c>
       <c r="O7">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="P7">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="Q7">
-        <v>454.3312953987049</v>
+        <v>464.535157691685</v>
       </c>
       <c r="R7">
-        <v>454.3312953987049</v>
+        <v>4180.816419225165</v>
       </c>
       <c r="S7">
-        <v>0.2928278319230294</v>
+        <v>0.2372184186583932</v>
       </c>
       <c r="T7">
-        <v>0.2928278319230294</v>
+        <v>0.2372184186583932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H8">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I8">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J8">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.37105489388635</v>
+        <v>2.618716333333334</v>
       </c>
       <c r="N8">
-        <v>2.37105489388635</v>
+        <v>7.856149000000001</v>
       </c>
       <c r="O8">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="P8">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
       <c r="Q8">
-        <v>29.18803100612897</v>
+        <v>32.86164888541812</v>
       </c>
       <c r="R8">
-        <v>29.18803100612897</v>
+        <v>295.7548399687631</v>
       </c>
       <c r="S8">
-        <v>0.01881241271334017</v>
+        <v>0.01678105145333281</v>
       </c>
       <c r="T8">
-        <v>0.01881241271334017</v>
+        <v>0.0167810514533328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H9">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I9">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J9">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.9331216370103</v>
+        <v>15.503283</v>
       </c>
       <c r="N9">
-        <v>14.9331216370103</v>
+        <v>46.509849</v>
       </c>
       <c r="O9">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="P9">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="Q9">
-        <v>183.8289018458483</v>
+        <v>194.547013753407</v>
       </c>
       <c r="R9">
-        <v>183.8289018458483</v>
+        <v>1750.923123780663</v>
       </c>
       <c r="S9">
-        <v>0.1184823042512879</v>
+        <v>0.0993469152832691</v>
       </c>
       <c r="T9">
-        <v>0.1184823042512879</v>
+        <v>0.09934691528326907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H10">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I10">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J10">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.6054419963474</v>
+        <v>18.67887366666666</v>
       </c>
       <c r="N10">
-        <v>18.6054419963474</v>
+        <v>56.036621</v>
       </c>
       <c r="O10">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="P10">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="Q10">
-        <v>229.0357002161215</v>
+        <v>234.3967462973585</v>
       </c>
       <c r="R10">
-        <v>229.0357002161215</v>
+        <v>2109.570716676227</v>
       </c>
       <c r="S10">
-        <v>0.1476192113695432</v>
+        <v>0.1196964849154349</v>
       </c>
       <c r="T10">
-        <v>0.1476192113695432</v>
+        <v>0.1196964849154349</v>
       </c>
     </row>
   </sheetData>
